--- a/differences_6_0.55.xlsx
+++ b/differences_6_0.55.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.137</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1110000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05599999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08400000000000002</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03600000000000003</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.107</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.126</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.132</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.04600000000000004</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.08499999999999996</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08100000000000002</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04800000000000004</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.03499999999999998</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09799999999999998</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04499999999999998</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09259259259259256</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05999999999999994</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02899999999999991</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1625,16 +1625,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03300000000000003</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04399999999999993</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.03399999999999997</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.02399999999999991</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06800000000000006</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02700000000000002</v>
+        <v>0.05700000000000005</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.06699999999999995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03299999999999992</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03399999999999997</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.06399999999999995</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.108</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.07700000000000001</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.02599999999999997</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03500000000000003</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.0109999999999999</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.04699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.04100000000000004</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03899999999999992</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02100000000000002</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-0.06100000000000005</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.06300000000000006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.04800000000000004</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.06399999999999995</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02899999999999997</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.08599999999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06599999999999995</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.05599999999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.04699999999999999</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02399999999999997</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.05599999999999994</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.03799999999999998</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.04099999999999998</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.05999999999999994</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.04399999999999998</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04799999999999993</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.08100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02999999999999992</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.04500000000000004</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.07399999999999995</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.08600000000000002</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.04399999999999993</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08800000000000008</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-0.05099999999999993</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.116</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.03500000000000003</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>-0.04899999999999999</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>-0.0200407777777778</v>
       </c>
     </row>
     <row r="68">
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.09599999999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.01699999999999996</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.04499999999999998</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.05899999999999994</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>-0.03900000000000003</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.01699999999999996</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.05399999999999994</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3934,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.05899999999999994</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3965,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-0.04900000000000004</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>-0.04499999999999993</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.05600000000000005</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4164,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>-0.06299999999999994</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.1840000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>-0.057</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4397,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.03900000000000003</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.1289999999999999</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.07599999999999996</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.08400000000000007</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.05700000000000005</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.04500000000000004</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.02199999999999996</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04399999999999998</v>
+        <v>-0.04699999999999999</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>0.04400000000000004</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.08899999999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>-0.04100000000000004</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>-0.01899999999999996</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.07300000000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.06300000000000006</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
